--- a/Budget2016.xlsx
+++ b/Budget2016.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="740" windowWidth="25500" windowHeight="13260"/>
+    <workbookView xWindow="28820" yWindow="3000" windowWidth="25500" windowHeight="17480"/>
   </bookViews>
   <sheets>
     <sheet name="Budget Sheet" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
   <si>
     <t>Year 1</t>
   </si>
@@ -322,6 +322,36 @@
   <si>
     <t>number of days</t>
   </si>
+  <si>
+    <t>Not including greg</t>
+  </si>
+  <si>
+    <t>AAS</t>
+  </si>
+  <si>
+    <t>registration</t>
+  </si>
+  <si>
+    <t>Finn, 2 students, Desai</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>OBSERVING</t>
+  </si>
+  <si>
+    <t>Observing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  total foreign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  total domestic</t>
+  </si>
+  <si>
+    <t>number of travelers</t>
+  </si>
 </sst>
 </file>
 
@@ -459,7 +489,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -598,8 +628,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -610,8 +715,30 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -742,17 +869,55 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="32">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -1474,8 +1639,8 @@
   </sheetPr>
   <dimension ref="A1:G715"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1655,17 +1820,20 @@
         <v>25</v>
       </c>
       <c r="B12" s="10">
-        <v>0</v>
+        <f>28*10.5*10*2</f>
+        <v>5880</v>
       </c>
       <c r="C12" s="10">
-        <v>0</v>
+        <f>28*10.5*10*2</f>
+        <v>5880</v>
       </c>
       <c r="D12" s="10">
-        <v>0</v>
+        <f>28*10.5*10*2</f>
+        <v>5880</v>
       </c>
       <c r="E12" s="56">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17640</v>
       </c>
       <c r="F12" t="s">
         <v>42</v>
@@ -1741,19 +1909,19 @@
       </c>
       <c r="B16" s="19">
         <f>SUM(B7:B15)</f>
-        <v>41977.777777777781</v>
+        <v>47857.777777777781</v>
       </c>
       <c r="C16" s="19">
         <f>SUM(C7:C15)</f>
-        <v>42796.111111111109</v>
+        <v>48676.111111111109</v>
       </c>
       <c r="D16" s="19">
         <f>SUM(D7:D15)</f>
-        <v>43638.994444444441</v>
+        <v>49518.994444444441</v>
       </c>
       <c r="E16" s="36">
         <f t="shared" si="0"/>
-        <v>128412.88333333333</v>
+        <v>146052.88333333333</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1815,19 +1983,19 @@
       </c>
       <c r="B20" s="10">
         <f>SUM(B12:B13)*5.1%</f>
-        <v>749.69999999999993</v>
+        <v>1049.58</v>
       </c>
       <c r="C20" s="10">
         <f>SUM(C12:C13)*5.1%</f>
-        <v>749.69999999999993</v>
+        <v>1049.58</v>
       </c>
       <c r="D20" s="10">
         <f>SUM(D12:D13)*5.1%</f>
-        <v>749.69999999999993</v>
+        <v>1049.58</v>
       </c>
       <c r="E20" s="56">
         <f t="shared" si="4"/>
-        <v>2249.1</v>
+        <v>3148.74</v>
       </c>
       <c r="F20" s="8"/>
     </row>
@@ -1881,19 +2049,19 @@
       </c>
       <c r="B23" s="26">
         <f>SUM(B18:B22)</f>
-        <v>2641.7</v>
+        <v>2941.58</v>
       </c>
       <c r="C23" s="26">
         <f>SUM(C18:C22)</f>
-        <v>2698.4599999999996</v>
+        <v>2998.3399999999997</v>
       </c>
       <c r="D23" s="26">
         <f>SUM(D18:D22)</f>
-        <v>2756.9227999999998</v>
+        <v>3056.8027999999995</v>
       </c>
       <c r="E23" s="36">
         <f t="shared" si="4"/>
-        <v>8097.0828000000001</v>
+        <v>8996.7227999999996</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="12.75" customHeight="1">
@@ -1910,19 +2078,19 @@
       </c>
       <c r="B25" s="28">
         <f>B16+B23</f>
-        <v>44619.477777777778</v>
+        <v>50799.357777777783</v>
       </c>
       <c r="C25" s="28">
         <f>C16+C23</f>
-        <v>45494.571111111109</v>
+        <v>51674.451111111106</v>
       </c>
       <c r="D25" s="28">
         <f>D16+D23</f>
-        <v>46395.917244444441</v>
+        <v>52575.797244444439</v>
       </c>
       <c r="E25" s="56">
         <f>SUM(B25:D25)</f>
-        <v>136509.96613333334</v>
+        <v>155049.60613333332</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1967,17 +2135,20 @@
         <v>10</v>
       </c>
       <c r="B29" s="11">
-        <v>0</v>
+        <f>Travel!G7</f>
+        <v>7300</v>
       </c>
       <c r="C29" s="11">
-        <v>2500</v>
+        <f>Travel!H7</f>
+        <v>14270</v>
       </c>
       <c r="D29" s="11">
-        <v>2500</v>
+        <f>Travel!I7</f>
+        <v>12450</v>
       </c>
       <c r="E29" s="56">
         <f>SUM(B29:D29)</f>
-        <v>5000</v>
+        <v>34020</v>
       </c>
       <c r="F29" s="42" t="s">
         <v>26</v>
@@ -1988,17 +2159,20 @@
         <v>11</v>
       </c>
       <c r="B30" s="11">
+        <f>Travel!G8</f>
         <v>0</v>
       </c>
       <c r="C30" s="11">
+        <f>Travel!H8</f>
         <v>0</v>
       </c>
       <c r="D30" s="11">
-        <v>0</v>
+        <f>Travel!I8</f>
+        <v>5400</v>
       </c>
       <c r="E30" s="56">
         <f>SUM(B30:D30)</f>
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="F30" s="42" t="s">
         <v>51</v>
@@ -2102,17 +2276,17 @@
         <v>18</v>
       </c>
       <c r="B37" s="11">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="C37" s="11">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D37" s="11">
         <v>0</v>
       </c>
       <c r="E37" s="56">
         <f t="shared" ref="E37:E46" si="5">SUM(B37:D37)</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="F37" s="42" t="s">
         <v>31</v>
@@ -2141,17 +2315,17 @@
         <v>30</v>
       </c>
       <c r="B39" s="11">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="C39" s="11">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="D39" s="11">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E39" s="56">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2195,17 +2369,20 @@
         <v>28</v>
       </c>
       <c r="B42" s="11">
-        <v>0</v>
+        <f>135*10*4</f>
+        <v>5400</v>
       </c>
       <c r="C42" s="11">
-        <v>0</v>
+        <f>135*10*4</f>
+        <v>5400</v>
       </c>
       <c r="D42" s="11">
-        <v>0</v>
+        <f>135*10*4</f>
+        <v>5400</v>
       </c>
       <c r="E42" s="56">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>16200</v>
       </c>
       <c r="F42" s="41" t="s">
         <v>53</v>
@@ -2218,19 +2395,19 @@
       </c>
       <c r="B43" s="29">
         <f>SUM(B25:B42)</f>
-        <v>44619.477777777778</v>
+        <v>69499.357777777783</v>
       </c>
       <c r="C43" s="29">
         <f>SUM(C25:C42)</f>
-        <v>47994.571111111109</v>
+        <v>76344.451111111106</v>
       </c>
       <c r="D43" s="29">
         <f>SUM(D25:D42)</f>
-        <v>50395.917244444441</v>
+        <v>80325.797244444431</v>
       </c>
       <c r="E43" s="36">
         <f t="shared" si="5"/>
-        <v>143009.96613333334</v>
+        <v>226169.60613333332</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="37" customFormat="1">
@@ -2239,19 +2416,19 @@
       </c>
       <c r="B44" s="46">
         <f>B43-B27-B41-SUM(B32:B35)</f>
-        <v>44619.477777777778</v>
+        <v>69499.357777777783</v>
       </c>
       <c r="C44" s="46">
         <f>C43-C27-C41-SUM(C32:C35)</f>
-        <v>47994.571111111109</v>
+        <v>76344.451111111106</v>
       </c>
       <c r="D44" s="46">
         <f>D43-D27-D41-SUM(D32:D35)</f>
-        <v>50395.917244444441</v>
+        <v>80325.797244444431</v>
       </c>
       <c r="E44" s="59">
         <f t="shared" si="5"/>
-        <v>143009.96613333334</v>
+        <v>226169.60613333332</v>
       </c>
       <c r="F44" s="45" t="s">
         <v>35</v>
@@ -2263,19 +2440,19 @@
       </c>
       <c r="B45" s="11">
         <f>B44*21.3%</f>
-        <v>9503.9487666666664</v>
+        <v>14803.363206666667</v>
       </c>
       <c r="C45" s="11">
         <f>C44*21.3%</f>
-        <v>10222.843646666666</v>
+        <v>16261.368086666665</v>
       </c>
       <c r="D45" s="11">
         <f>D44*21.3%</f>
-        <v>10734.330373066665</v>
+        <v>17109.394813066665</v>
       </c>
       <c r="E45" s="56">
         <f t="shared" si="5"/>
-        <v>30461.122786399996</v>
+        <v>48174.126106399999</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="13.5" customHeight="1">
@@ -2284,19 +2461,19 @@
       </c>
       <c r="B46" s="34">
         <f>B43+B45</f>
-        <v>54123.426544444446</v>
+        <v>84302.720984444444</v>
       </c>
       <c r="C46" s="34">
         <f>C43+C45</f>
-        <v>58217.414757777777</v>
+        <v>92605.819197777775</v>
       </c>
       <c r="D46" s="34">
         <f>D43+D45</f>
-        <v>61130.247617511108</v>
+        <v>97435.1920575111</v>
       </c>
       <c r="E46" s="36">
         <f t="shared" si="5"/>
-        <v>173471.08891973333</v>
+        <v>274343.73223973333</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="12.75" customHeight="1">
@@ -7001,129 +7178,482 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C25"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="1" spans="1:9">
+      <c r="F1" s="75"/>
+      <c r="G1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="77" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="78" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="80"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="71"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="C3" s="71"/>
+      <c r="F3" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="83">
+        <f>C10</f>
+        <v>1820</v>
+      </c>
+      <c r="H3" s="83">
+        <f>C10</f>
+        <v>1820</v>
+      </c>
+      <c r="I3" s="84"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="71"/>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83">
+        <f>C22</f>
+        <v>6970</v>
+      </c>
+      <c r="I4" s="84">
+        <f>C22</f>
+        <v>6970</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="37" customFormat="1">
+      <c r="A5" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="37" customFormat="1">
-      <c r="A5" s="37" t="s">
+      <c r="C5" s="71"/>
+      <c r="F5" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="84">
+        <f>C31</f>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="72">
+        <v>500</v>
+      </c>
+      <c r="C6" s="73">
+        <f>B6*B4</f>
+        <v>500</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="83">
+        <f>C43</f>
+        <v>5480</v>
+      </c>
+      <c r="H6" s="83">
+        <f>C43</f>
+        <v>5480</v>
+      </c>
+      <c r="I6" s="84">
+        <f>C43</f>
+        <v>5480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="72">
+        <v>150</v>
+      </c>
+      <c r="C7" s="73">
+        <f>B7*B4*B3</f>
+        <v>600</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="83">
+        <f>G3+G4+G6</f>
+        <v>7300</v>
+      </c>
+      <c r="H7" s="83">
+        <f>H3+H4+H6</f>
+        <v>14270</v>
+      </c>
+      <c r="I7" s="83">
+        <f>I3+I4+I6</f>
+        <v>12450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="72">
+        <v>60</v>
+      </c>
+      <c r="C8" s="73">
+        <f>B8*B3*B5</f>
+        <v>720</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="83">
+        <f>G5</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="83">
+        <f>H5</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="83">
+        <f>I5</f>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="70"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="71"/>
+      <c r="F9" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="85">
+        <f>SUM(G3:G6)</f>
+        <v>7300</v>
+      </c>
+      <c r="H9" s="85">
+        <f>SUM(H3:H6)</f>
+        <v>14270</v>
+      </c>
+      <c r="I9" s="86">
+        <f>SUM(I3:I6)</f>
+        <v>17850</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="81"/>
+      <c r="C10" s="82">
+        <f>SUM(C6:C8)</f>
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="79"/>
+      <c r="C13" s="80"/>
+    </row>
+    <row r="14" spans="1:9" s="37" customFormat="1">
+      <c r="A14" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="8">
+        <v>4</v>
+      </c>
+      <c r="C14" s="71"/>
+      <c r="D14" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:9" s="37" customFormat="1">
+      <c r="A15" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="8">
+        <v>4</v>
+      </c>
+      <c r="C15" s="71"/>
+    </row>
+    <row r="16" spans="1:9" s="37" customFormat="1">
+      <c r="A16" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B16" s="8">
+        <v>3</v>
+      </c>
+      <c r="C16" s="71"/>
+    </row>
+    <row r="17" spans="1:9" s="37" customFormat="1">
+      <c r="A17" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="72">
+        <v>500</v>
+      </c>
+      <c r="C17" s="73">
+        <f>B17*B15</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="37" customFormat="1">
+      <c r="A18" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="72">
+        <v>200</v>
+      </c>
+      <c r="C18" s="73">
+        <f>B18*B15*B14</f>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="72">
+        <v>60</v>
+      </c>
+      <c r="C19" s="73">
+        <f>B19*B14*B16</f>
+        <v>720</v>
+      </c>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="72">
+        <v>350</v>
+      </c>
+      <c r="C20" s="73">
+        <f>B20*B16</f>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="70"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="71"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="81"/>
+      <c r="C22" s="82">
+        <f>SUM(C17:C21)</f>
+        <v>6970</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="79"/>
+      <c r="C24" s="80"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="C26" s="71"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="70">
+      <c r="B27" s="72">
+        <v>1200</v>
+      </c>
+      <c r="C27" s="73">
+        <f>B27*B25</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="72">
+        <v>100</v>
+      </c>
+      <c r="C28" s="73">
+        <f>B28*B26*B25</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="72">
+        <v>200</v>
+      </c>
+      <c r="C29" s="73">
+        <f>B29*B26*B25</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="70"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="71"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="81"/>
+      <c r="C31" s="82">
+        <f>SUM(C27:C29)</f>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="79"/>
+      <c r="C34" s="80"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="8">
+        <v>6</v>
+      </c>
+      <c r="C35" s="71"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="8">
+        <v>4</v>
+      </c>
+      <c r="C36" s="71"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="70"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="71"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="72">
         <v>500</v>
       </c>
-      <c r="C6" s="70">
-        <f>B6*B4</f>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="C38" s="73">
+        <f>B38*B36</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="70">
-        <v>150</v>
-      </c>
-      <c r="C7" s="70">
-        <f>B7*B4*B3</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="B39" s="72">
+        <v>125</v>
+      </c>
+      <c r="C39" s="73">
+        <f>B39*B36*B35</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="70">
-        <v>60</v>
-      </c>
-      <c r="C8" s="70">
-        <f>B8*B3*B5</f>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="B40" s="72">
+        <v>20</v>
+      </c>
+      <c r="C40" s="73">
+        <f>B40*B35*B36</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="70"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="73"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="70"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="71"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="70">
-        <f>SUM(C6:C11)</f>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="70">
-        <v>1200</v>
-      </c>
-      <c r="C24" s="70">
-        <f>B22*B24</f>
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="70">
-        <v>100</v>
-      </c>
-      <c r="C25" s="70">
-        <f>B25*B23*B22</f>
-        <v>2000</v>
+      <c r="B43" s="81"/>
+      <c r="C43" s="82">
+        <f>SUM(C38:C42)</f>
+        <v>5480</v>
       </c>
     </row>
   </sheetData>

--- a/Budget2016.xlsx
+++ b/Budget2016.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28820" yWindow="3000" windowWidth="25500" windowHeight="17480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Budget Sheet" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="80">
   <si>
     <t>Year 1</t>
   </si>
@@ -351,6 +351,18 @@
   </si>
   <si>
     <t>number of travelers</t>
+  </si>
+  <si>
+    <t>registration student</t>
+  </si>
+  <si>
+    <t>number of faculty</t>
+  </si>
+  <si>
+    <t>number of students</t>
+  </si>
+  <si>
+    <t>rental car</t>
   </si>
 </sst>
 </file>
@@ -738,7 +750,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -854,21 +866,6 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -886,6 +883,22 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="32">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1639,8 +1652,8 @@
   </sheetPr>
   <dimension ref="A1:G715"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1675,28 +1688,28 @@
       <c r="E3" s="50"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="82" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="3.75" customHeight="1">
-      <c r="A5" s="68"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="66"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="83"/>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1">
       <c r="A6" s="16" t="s">
@@ -1712,19 +1725,20 @@
         <v>23</v>
       </c>
       <c r="B7" s="10">
-        <v>0</v>
+        <f>99000/8</f>
+        <v>12375</v>
       </c>
       <c r="C7" s="10">
         <f>B7*1.03</f>
-        <v>0</v>
+        <v>12746.25</v>
       </c>
       <c r="D7" s="10">
         <f>C7*1.03</f>
-        <v>0</v>
+        <v>13128.637500000001</v>
       </c>
       <c r="E7" s="56">
         <f t="shared" ref="E7:E16" si="0">SUM(B7:D7)</f>
-        <v>0</v>
+        <v>38249.887499999997</v>
       </c>
       <c r="F7" s="42" t="s">
         <v>27</v>
@@ -1909,19 +1923,19 @@
       </c>
       <c r="B16" s="19">
         <f>SUM(B7:B15)</f>
-        <v>47857.777777777781</v>
+        <v>60232.777777777781</v>
       </c>
       <c r="C16" s="19">
         <f>SUM(C7:C15)</f>
-        <v>48676.111111111109</v>
+        <v>61422.361111111109</v>
       </c>
       <c r="D16" s="19">
         <f>SUM(D7:D15)</f>
-        <v>49518.994444444441</v>
+        <v>62647.631944444445</v>
       </c>
       <c r="E16" s="36">
         <f t="shared" si="0"/>
-        <v>146052.88333333333</v>
+        <v>184302.77083333334</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1939,19 +1953,19 @@
       </c>
       <c r="B18" s="27">
         <f>B7*42.2%</f>
-        <v>0</v>
+        <v>5222.2500000000009</v>
       </c>
       <c r="C18" s="27">
         <f>C7*42.2%</f>
-        <v>0</v>
+        <v>5378.9175000000005</v>
       </c>
       <c r="D18" s="27">
         <f>D7*42.2%</f>
-        <v>0</v>
+        <v>5540.285025000001</v>
       </c>
       <c r="E18" s="56">
         <f t="shared" ref="E18:E23" si="4">SUM(B18:D18)</f>
-        <v>0</v>
+        <v>16141.452525000002</v>
       </c>
       <c r="F18" s="8"/>
     </row>
@@ -2049,19 +2063,19 @@
       </c>
       <c r="B23" s="26">
         <f>SUM(B18:B22)</f>
-        <v>2941.58</v>
+        <v>8163.8300000000008</v>
       </c>
       <c r="C23" s="26">
         <f>SUM(C18:C22)</f>
-        <v>2998.3399999999997</v>
+        <v>8377.2574999999997</v>
       </c>
       <c r="D23" s="26">
         <f>SUM(D18:D22)</f>
-        <v>3056.8027999999995</v>
+        <v>8597.0878250000005</v>
       </c>
       <c r="E23" s="36">
         <f t="shared" si="4"/>
-        <v>8996.7227999999996</v>
+        <v>25138.175325000004</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="12.75" customHeight="1">
@@ -2078,19 +2092,19 @@
       </c>
       <c r="B25" s="28">
         <f>B16+B23</f>
-        <v>50799.357777777783</v>
+        <v>68396.607777777783</v>
       </c>
       <c r="C25" s="28">
         <f>C16+C23</f>
-        <v>51674.451111111106</v>
+        <v>69799.618611111102</v>
       </c>
       <c r="D25" s="28">
         <f>D16+D23</f>
-        <v>52575.797244444439</v>
+        <v>71244.719769444448</v>
       </c>
       <c r="E25" s="56">
         <f>SUM(B25:D25)</f>
-        <v>155049.60613333332</v>
+        <v>209440.94615833333</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2136,19 +2150,19 @@
       </c>
       <c r="B29" s="11">
         <f>Travel!G7</f>
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="C29" s="11">
         <f>Travel!H7</f>
-        <v>14270</v>
+        <v>14140</v>
       </c>
       <c r="D29" s="11">
         <f>Travel!I7</f>
-        <v>12450</v>
+        <v>12320</v>
       </c>
       <c r="E29" s="56">
         <f>SUM(B29:D29)</f>
-        <v>34020</v>
+        <v>33960</v>
       </c>
       <c r="F29" s="42" t="s">
         <v>26</v>
@@ -2168,11 +2182,11 @@
       </c>
       <c r="D30" s="11">
         <f>Travel!I8</f>
-        <v>5400</v>
+        <v>6250</v>
       </c>
       <c r="E30" s="56">
         <f>SUM(B30:D30)</f>
-        <v>5400</v>
+        <v>6250</v>
       </c>
       <c r="F30" s="42" t="s">
         <v>51</v>
@@ -2297,17 +2311,19 @@
         <v>19</v>
       </c>
       <c r="B38" s="11">
-        <v>0</v>
+        <f>15*150</f>
+        <v>2250</v>
       </c>
       <c r="C38" s="11">
         <v>0</v>
       </c>
       <c r="D38" s="11">
-        <v>1500</v>
+        <f>B38</f>
+        <v>2250</v>
       </c>
       <c r="E38" s="56">
         <f t="shared" si="5"/>
-        <v>1500</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2395,19 +2411,19 @@
       </c>
       <c r="B43" s="29">
         <f>SUM(B25:B42)</f>
-        <v>69499.357777777783</v>
+        <v>89546.607777777783</v>
       </c>
       <c r="C43" s="29">
         <f>SUM(C25:C42)</f>
-        <v>76344.451111111106</v>
+        <v>94339.618611111102</v>
       </c>
       <c r="D43" s="29">
         <f>SUM(D25:D42)</f>
-        <v>80325.797244444431</v>
+        <v>100464.71976944445</v>
       </c>
       <c r="E43" s="36">
         <f t="shared" si="5"/>
-        <v>226169.60613333332</v>
+        <v>284350.94615833333</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="37" customFormat="1">
@@ -2416,19 +2432,19 @@
       </c>
       <c r="B44" s="46">
         <f>B43-B27-B41-SUM(B32:B35)</f>
-        <v>69499.357777777783</v>
+        <v>89546.607777777783</v>
       </c>
       <c r="C44" s="46">
         <f>C43-C27-C41-SUM(C32:C35)</f>
-        <v>76344.451111111106</v>
+        <v>94339.618611111102</v>
       </c>
       <c r="D44" s="46">
         <f>D43-D27-D41-SUM(D32:D35)</f>
-        <v>80325.797244444431</v>
+        <v>100464.71976944445</v>
       </c>
       <c r="E44" s="59">
         <f t="shared" si="5"/>
-        <v>226169.60613333332</v>
+        <v>284350.94615833333</v>
       </c>
       <c r="F44" s="45" t="s">
         <v>35</v>
@@ -2440,19 +2456,19 @@
       </c>
       <c r="B45" s="11">
         <f>B44*21.3%</f>
-        <v>14803.363206666667</v>
+        <v>19073.427456666668</v>
       </c>
       <c r="C45" s="11">
         <f>C44*21.3%</f>
-        <v>16261.368086666665</v>
+        <v>20094.338764166663</v>
       </c>
       <c r="D45" s="11">
         <f>D44*21.3%</f>
-        <v>17109.394813066665</v>
+        <v>21398.985310891669</v>
       </c>
       <c r="E45" s="56">
         <f t="shared" si="5"/>
-        <v>48174.126106399999</v>
+        <v>60566.751531725007</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="13.5" customHeight="1">
@@ -2461,19 +2477,19 @@
       </c>
       <c r="B46" s="34">
         <f>B43+B45</f>
-        <v>84302.720984444444</v>
+        <v>108620.03523444445</v>
       </c>
       <c r="C46" s="34">
         <f>C43+C45</f>
-        <v>92605.819197777775</v>
+        <v>114433.95737527777</v>
       </c>
       <c r="D46" s="34">
         <f>D43+D45</f>
-        <v>97435.1920575111</v>
+        <v>121863.70508033612</v>
       </c>
       <c r="E46" s="36">
         <f t="shared" si="5"/>
-        <v>274343.73223973333</v>
+        <v>344917.69769005832</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="12.75" customHeight="1">
@@ -7180,8 +7196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -7191,217 +7207,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="F1" s="75"/>
-      <c r="G1" s="76" t="s">
+      <c r="F1" s="70"/>
+      <c r="G1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="77" t="s">
+      <c r="I1" s="72" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="80"/>
-      <c r="F2" s="70"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="F2" s="65"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="71"/>
+      <c r="I2" s="66"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="65" t="s">
         <v>59</v>
       </c>
       <c r="B3" s="8">
         <v>4</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="F3" s="70" t="s">
+      <c r="C3" s="66"/>
+      <c r="F3" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="83">
+      <c r="G3" s="78">
         <f>C10</f>
         <v>1820</v>
       </c>
-      <c r="H3" s="83">
+      <c r="H3" s="78">
         <f>C10</f>
         <v>1820</v>
       </c>
-      <c r="I3" s="84"/>
+      <c r="I3" s="79"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="65" t="s">
         <v>61</v>
       </c>
       <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="71"/>
+      <c r="C4" s="66"/>
       <c r="D4" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83">
+      <c r="G4" s="78"/>
+      <c r="H4" s="78">
         <f>C22</f>
-        <v>6970</v>
-      </c>
-      <c r="I4" s="84">
+        <v>6640</v>
+      </c>
+      <c r="I4" s="79">
         <f>C22</f>
-        <v>6970</v>
+        <v>6640</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="37" customFormat="1">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="65" t="s">
         <v>62</v>
       </c>
       <c r="B5" s="8">
         <v>3</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="F5" s="70" t="s">
+      <c r="C5" s="66"/>
+      <c r="F5" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="84">
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="79">
         <f>C31</f>
-        <v>5400</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="72">
+      <c r="B6" s="67">
         <v>500</v>
       </c>
-      <c r="C6" s="73">
+      <c r="C6" s="68">
         <f>B6*B4</f>
         <v>500</v>
       </c>
-      <c r="F6" s="70" t="s">
+      <c r="F6" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="83">
+      <c r="G6" s="78">
         <f>C43</f>
-        <v>5480</v>
-      </c>
-      <c r="H6" s="83">
+        <v>5680</v>
+      </c>
+      <c r="H6" s="78">
         <f>C43</f>
-        <v>5480</v>
-      </c>
-      <c r="I6" s="84">
+        <v>5680</v>
+      </c>
+      <c r="I6" s="79">
         <f>C43</f>
-        <v>5480</v>
+        <v>5680</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="72">
+      <c r="B7" s="67">
         <v>150</v>
       </c>
-      <c r="C7" s="73">
+      <c r="C7" s="68">
         <f>B7*B4*B3</f>
         <v>600</v>
       </c>
-      <c r="F7" s="70" t="s">
+      <c r="F7" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="83">
+      <c r="G7" s="78">
         <f>G3+G4+G6</f>
-        <v>7300</v>
-      </c>
-      <c r="H7" s="83">
+        <v>7500</v>
+      </c>
+      <c r="H7" s="78">
         <f>H3+H4+H6</f>
-        <v>14270</v>
-      </c>
-      <c r="I7" s="83">
+        <v>14140</v>
+      </c>
+      <c r="I7" s="78">
         <f>I3+I4+I6</f>
-        <v>12450</v>
+        <v>12320</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="72">
+      <c r="B8" s="67">
         <v>60</v>
       </c>
-      <c r="C8" s="73">
+      <c r="C8" s="68">
         <f>B8*B3*B5</f>
         <v>720</v>
       </c>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="G8" s="83">
+      <c r="G8" s="78">
         <f>G5</f>
         <v>0</v>
       </c>
-      <c r="H8" s="83">
+      <c r="H8" s="78">
         <f>H5</f>
         <v>0</v>
       </c>
-      <c r="I8" s="83">
+      <c r="I8" s="78">
         <f>I5</f>
-        <v>5400</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="70"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="71"/>
-      <c r="F9" s="74" t="s">
+      <c r="C9" s="66"/>
+      <c r="F9" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="85">
+      <c r="G9" s="80">
         <f>SUM(G3:G6)</f>
-        <v>7300</v>
-      </c>
-      <c r="H9" s="85">
+        <v>7500</v>
+      </c>
+      <c r="H9" s="80">
         <f>SUM(H3:H6)</f>
-        <v>14270</v>
-      </c>
-      <c r="I9" s="86">
+        <v>14140</v>
+      </c>
+      <c r="I9" s="81">
         <f>SUM(I3:I6)</f>
-        <v>17850</v>
+        <v>18570</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="82">
+      <c r="B10" s="76"/>
+      <c r="C10" s="77">
         <f>SUM(C6:C8)</f>
         <v>1820</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="80"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="75"/>
     </row>
     <row r="14" spans="1:9" s="37" customFormat="1">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="65" t="s">
         <v>59</v>
       </c>
       <c r="B14" s="8">
         <v>4</v>
       </c>
-      <c r="C14" s="71"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="37" t="s">
         <v>69</v>
       </c>
@@ -7411,57 +7427,57 @@
       <c r="I14"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1">
-      <c r="A15" s="70" t="s">
-        <v>61</v>
+      <c r="A15" s="65" t="s">
+        <v>77</v>
       </c>
       <c r="B15" s="8">
-        <v>4</v>
-      </c>
-      <c r="C15" s="71"/>
+        <v>2</v>
+      </c>
+      <c r="C15" s="66"/>
     </row>
     <row r="16" spans="1:9" s="37" customFormat="1">
-      <c r="A16" s="70" t="s">
-        <v>62</v>
+      <c r="A16" s="65" t="s">
+        <v>78</v>
       </c>
       <c r="B16" s="8">
-        <v>3</v>
-      </c>
-      <c r="C16" s="71"/>
+        <v>2</v>
+      </c>
+      <c r="C16" s="66"/>
     </row>
     <row r="17" spans="1:9" s="37" customFormat="1">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="72">
+      <c r="B17" s="67">
         <v>500</v>
       </c>
-      <c r="C17" s="73">
-        <f>B17*B15</f>
+      <c r="C17" s="68">
+        <f>(B15+B16)*B17</f>
         <v>2000</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="37" customFormat="1">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="72">
-        <v>200</v>
-      </c>
-      <c r="C18" s="73">
-        <f>B18*B15*B14</f>
-        <v>3200</v>
+      <c r="B18" s="67">
+        <v>250</v>
+      </c>
+      <c r="C18" s="68">
+        <f>(B15+B16/2)*B14*B18</f>
+        <v>3000</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="72">
+      <c r="B19" s="67">
         <v>60</v>
       </c>
-      <c r="C19" s="73">
-        <f>B19*B14*B16</f>
-        <v>720</v>
+      <c r="C19" s="68">
+        <f>(B15+B16)*B19</f>
+        <v>240</v>
       </c>
       <c r="F19" s="37"/>
       <c r="G19" s="37"/>
@@ -7469,38 +7485,45 @@
       <c r="I19" s="37"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="72">
-        <v>350</v>
-      </c>
-      <c r="C20" s="73">
+      <c r="B20" s="67">
+        <v>500</v>
+      </c>
+      <c r="C20" s="68">
         <f>B20*B16</f>
-        <v>1050</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="70"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="71"/>
+      <c r="A21" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="87">
+        <v>200</v>
+      </c>
+      <c r="C21" s="68">
+        <f>B16*B21</f>
+        <v>400</v>
+      </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="81"/>
-      <c r="C22" s="82">
+      <c r="B22" s="76"/>
+      <c r="C22" s="77">
         <f>SUM(C17:C21)</f>
-        <v>6970</v>
+        <v>6640</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="78" t="s">
+      <c r="A24" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="79"/>
-      <c r="C24" s="80"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="75"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
@@ -7511,149 +7534,156 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="70" t="s">
+      <c r="A26" s="65" t="s">
         <v>65</v>
       </c>
       <c r="B26" s="8">
-        <v>5</v>
-      </c>
-      <c r="C26" s="71"/>
+        <v>7</v>
+      </c>
+      <c r="C26" s="66"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="72">
+      <c r="B27" s="67">
         <v>1200</v>
       </c>
-      <c r="C27" s="73">
+      <c r="C27" s="68">
         <f>B27*B25</f>
         <v>2400</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="72">
-        <v>100</v>
-      </c>
-      <c r="C28" s="73">
+      <c r="B28" s="67">
+        <v>75</v>
+      </c>
+      <c r="C28" s="68">
         <f>B28*B26*B25</f>
-        <v>1000</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="70" t="s">
+      <c r="A29" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="67">
         <v>200</v>
       </c>
-      <c r="C29" s="73">
+      <c r="C29" s="68">
         <f>B29*B26*B25</f>
-        <v>2000</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="70"/>
+      <c r="A30" s="65"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="71"/>
+      <c r="C30" s="66"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="74" t="s">
+      <c r="A31" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="81"/>
-      <c r="C31" s="82">
+      <c r="B31" s="76"/>
+      <c r="C31" s="77">
         <f>SUM(C27:C29)</f>
-        <v>5400</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="78" t="s">
+      <c r="A34" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="79"/>
-      <c r="C34" s="80"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="75"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="70" t="s">
+      <c r="A35" s="65" t="s">
         <v>59</v>
       </c>
       <c r="B35" s="8">
         <v>6</v>
       </c>
-      <c r="C35" s="71"/>
+      <c r="C35" s="66"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="70" t="s">
+      <c r="A36" s="65" t="s">
         <v>61</v>
       </c>
       <c r="B36" s="8">
         <v>4</v>
       </c>
-      <c r="C36" s="71"/>
+      <c r="C36" s="66"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="70"/>
+      <c r="A37" s="65"/>
       <c r="B37" s="8"/>
-      <c r="C37" s="71"/>
+      <c r="C37" s="66"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="70" t="s">
+      <c r="A38" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="72">
+      <c r="B38" s="67">
         <v>500</v>
       </c>
-      <c r="C38" s="73">
+      <c r="C38" s="68">
         <f>B38*B36</f>
         <v>2000</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="70" t="s">
+      <c r="A39" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="72">
+      <c r="B39" s="67">
         <v>125</v>
       </c>
-      <c r="C39" s="73">
+      <c r="C39" s="68">
         <f>B39*B36*B35</f>
         <v>3000</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="70" t="s">
+      <c r="A40" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="72">
+      <c r="B40" s="67">
         <v>20</v>
       </c>
-      <c r="C40" s="73">
+      <c r="C40" s="68">
         <f>B40*B35*B36</f>
         <v>480</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="70"/>
-      <c r="B41" s="72"/>
-      <c r="C41" s="73"/>
+      <c r="A41" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="67">
+        <v>200</v>
+      </c>
+      <c r="C41" s="68">
+        <f>B41</f>
+        <v>200</v>
+      </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="70"/>
+      <c r="A42" s="65"/>
       <c r="B42" s="8"/>
-      <c r="C42" s="71"/>
+      <c r="C42" s="66"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="74" t="s">
+      <c r="A43" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="81"/>
-      <c r="C43" s="82">
+      <c r="B43" s="76"/>
+      <c r="C43" s="77">
         <f>SUM(C38:C42)</f>
-        <v>5480</v>
+        <v>5680</v>
       </c>
     </row>
   </sheetData>

--- a/Budget2016.xlsx
+++ b/Budget2016.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="7840" yWindow="20" windowWidth="23580" windowHeight="19480"/>
   </bookViews>
   <sheets>
     <sheet name="Budget Sheet" sheetId="5" r:id="rId1"/>
@@ -716,9 +716,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="32">
+  <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -900,7 +902,7 @@
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="32">
+  <cellStyles count="34">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -916,6 +918,7 @@
     <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -931,6 +934,7 @@
     <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -1652,8 +1656,8 @@
   </sheetPr>
   <dimension ref="A1:G715"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1773,20 +1777,19 @@
         <v>22</v>
       </c>
       <c r="B9" s="10">
-        <f>95000/9*0.5</f>
-        <v>5277.7777777777774</v>
+        <f>95000/9*0.75</f>
+        <v>7916.6666666666661</v>
       </c>
       <c r="C9" s="10">
-        <f t="shared" ref="C9:C11" si="2">B9*1.03</f>
-        <v>5436.1111111111104</v>
+        <v>0</v>
       </c>
       <c r="D9" s="10">
         <f t="shared" si="1"/>
-        <v>5599.1944444444434</v>
+        <v>0</v>
       </c>
       <c r="E9" s="56">
         <f t="shared" si="0"/>
-        <v>16313.08333333333</v>
+        <v>7916.6666666666661</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1797,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C9:C11" si="2">B10*1.03</f>
         <v>0</v>
       </c>
       <c r="D10" s="10">
@@ -1923,19 +1926,19 @@
       </c>
       <c r="B16" s="19">
         <f>SUM(B7:B15)</f>
-        <v>60232.777777777781</v>
+        <v>62871.666666666664</v>
       </c>
       <c r="C16" s="19">
         <f>SUM(C7:C15)</f>
-        <v>61422.361111111109</v>
+        <v>55986.25</v>
       </c>
       <c r="D16" s="19">
         <f>SUM(D7:D15)</f>
-        <v>62647.631944444445</v>
+        <v>57048.4375</v>
       </c>
       <c r="E16" s="36">
         <f t="shared" si="0"/>
-        <v>184302.77083333334</v>
+        <v>175906.35416666666</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2092,19 +2095,19 @@
       </c>
       <c r="B25" s="28">
         <f>B16+B23</f>
-        <v>68396.607777777783</v>
+        <v>71035.496666666659</v>
       </c>
       <c r="C25" s="28">
         <f>C16+C23</f>
-        <v>69799.618611111102</v>
+        <v>64363.5075</v>
       </c>
       <c r="D25" s="28">
         <f>D16+D23</f>
-        <v>71244.719769444448</v>
+        <v>65645.525324999995</v>
       </c>
       <c r="E25" s="56">
         <f>SUM(B25:D25)</f>
-        <v>209440.94615833333</v>
+        <v>201044.52949166665</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2154,15 +2157,15 @@
       </c>
       <c r="C29" s="11">
         <f>Travel!H7</f>
-        <v>14140</v>
+        <v>12580</v>
       </c>
       <c r="D29" s="11">
         <f>Travel!I7</f>
-        <v>12320</v>
+        <v>10760</v>
       </c>
       <c r="E29" s="56">
         <f>SUM(B29:D29)</f>
-        <v>33960</v>
+        <v>30840</v>
       </c>
       <c r="F29" s="42" t="s">
         <v>26</v>
@@ -2411,19 +2414,19 @@
       </c>
       <c r="B43" s="29">
         <f>SUM(B25:B42)</f>
-        <v>89546.607777777783</v>
+        <v>92185.496666666659</v>
       </c>
       <c r="C43" s="29">
         <f>SUM(C25:C42)</f>
-        <v>94339.618611111102</v>
+        <v>87343.507500000007</v>
       </c>
       <c r="D43" s="29">
         <f>SUM(D25:D42)</f>
-        <v>100464.71976944445</v>
+        <v>93305.525324999995</v>
       </c>
       <c r="E43" s="36">
         <f t="shared" si="5"/>
-        <v>284350.94615833333</v>
+        <v>272834.52949166665</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="37" customFormat="1">
@@ -2432,19 +2435,19 @@
       </c>
       <c r="B44" s="46">
         <f>B43-B27-B41-SUM(B32:B35)</f>
-        <v>89546.607777777783</v>
+        <v>92185.496666666659</v>
       </c>
       <c r="C44" s="46">
         <f>C43-C27-C41-SUM(C32:C35)</f>
-        <v>94339.618611111102</v>
+        <v>87343.507500000007</v>
       </c>
       <c r="D44" s="46">
         <f>D43-D27-D41-SUM(D32:D35)</f>
-        <v>100464.71976944445</v>
+        <v>93305.525324999995</v>
       </c>
       <c r="E44" s="59">
         <f t="shared" si="5"/>
-        <v>284350.94615833333</v>
+        <v>272834.52949166665</v>
       </c>
       <c r="F44" s="45" t="s">
         <v>35</v>
@@ -2456,19 +2459,19 @@
       </c>
       <c r="B45" s="11">
         <f>B44*21.3%</f>
-        <v>19073.427456666668</v>
+        <v>19635.510789999997</v>
       </c>
       <c r="C45" s="11">
         <f>C44*21.3%</f>
-        <v>20094.338764166663</v>
+        <v>18604.167097500002</v>
       </c>
       <c r="D45" s="11">
         <f>D44*21.3%</f>
-        <v>21398.985310891669</v>
+        <v>19874.076894225</v>
       </c>
       <c r="E45" s="56">
         <f t="shared" si="5"/>
-        <v>60566.751531725007</v>
+        <v>58113.754781725002</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="13.5" customHeight="1">
@@ -2477,19 +2480,19 @@
       </c>
       <c r="B46" s="34">
         <f>B43+B45</f>
-        <v>108620.03523444445</v>
+        <v>111821.00745666666</v>
       </c>
       <c r="C46" s="34">
         <f>C43+C45</f>
-        <v>114433.95737527777</v>
+        <v>105947.67459750001</v>
       </c>
       <c r="D46" s="34">
         <f>D43+D45</f>
-        <v>121863.70508033612</v>
+        <v>113179.60221922499</v>
       </c>
       <c r="E46" s="36">
         <f t="shared" si="5"/>
-        <v>344917.69769005832</v>
+        <v>330948.28427339171</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="12.75" customHeight="1">
@@ -7196,8 +7199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -7267,11 +7270,11 @@
       <c r="G4" s="78"/>
       <c r="H4" s="78">
         <f>C22</f>
-        <v>6640</v>
+        <v>5080</v>
       </c>
       <c r="I4" s="79">
         <f>C22</f>
-        <v>6640</v>
+        <v>5080</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="37" customFormat="1">
@@ -7339,11 +7342,11 @@
       </c>
       <c r="H7" s="78">
         <f>H3+H4+H6</f>
-        <v>14140</v>
+        <v>12580</v>
       </c>
       <c r="I7" s="78">
         <f>I3+I4+I6</f>
-        <v>12320</v>
+        <v>10760</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -7386,11 +7389,11 @@
       </c>
       <c r="H9" s="80">
         <f>SUM(H3:H6)</f>
-        <v>14140</v>
+        <v>12580</v>
       </c>
       <c r="I9" s="81">
         <f>SUM(I3:I6)</f>
-        <v>18570</v>
+        <v>17010</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -7431,7 +7434,7 @@
         <v>77</v>
       </c>
       <c r="B15" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="66"/>
     </row>
@@ -7453,7 +7456,7 @@
       </c>
       <c r="C17" s="68">
         <f>(B15+B16)*B17</f>
-        <v>2000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="37" customFormat="1">
@@ -7465,7 +7468,7 @@
       </c>
       <c r="C18" s="68">
         <f>(B15+B16/2)*B14*B18</f>
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -7477,7 +7480,7 @@
       </c>
       <c r="C19" s="68">
         <f>(B15+B16)*B19</f>
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="F19" s="37"/>
       <c r="G19" s="37"/>
@@ -7515,7 +7518,7 @@
       <c r="B22" s="76"/>
       <c r="C22" s="77">
         <f>SUM(C17:C21)</f>
-        <v>6640</v>
+        <v>5080</v>
       </c>
     </row>
     <row r="24" spans="1:9">
